--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906D3938-4CF7-4090-9117-203003A1ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D288744-0C5D-400C-B306-9BCD7BBC6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14310" yWindow="-18120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
   <si>
     <t>n+1</t>
   </si>
@@ -297,16 +297,53 @@
   </si>
   <si>
     <t xml:space="preserve">assume everything advecting in </t>
+  </si>
+  <si>
+    <t>essentially to account for "advection" back into that cell? Since there's no upstream.</t>
+  </si>
+  <si>
+    <t>completes the upwinds method but without another cell on the receiving end</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0360132319308030</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>&lt;-- this value (7) is equal to if we had the same volume at t=1</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +403,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,15 +606,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +647,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -650,7 +696,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,7 +745,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>83945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,7 +794,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,16 +1176,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1297,16 +1343,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1473,16 +1519,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1610,16 +1656,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2022,16 +2068,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2426,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C1EA4-B6EB-4A45-9877-35DDB2F0DB00}">
-  <dimension ref="B5:H7"/>
+  <dimension ref="B5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2443,14 +2489,18 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <f>18.8*10^-9</f>
-        <v>1.8800000000000003E-8</v>
+      <c r="B6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2463,12 +2513,13 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
@@ -2488,6 +2539,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -2505,6 +2559,13 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <f>C3</f>
+        <v>25.002766000000001</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
@@ -2521,6 +2582,13 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4">
+        <f>E19*300</f>
+        <v>12.499911000000001</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
@@ -2535,6 +2603,13 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <f>E20*-300</f>
+        <v>12.500003999999999</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -2545,6 +2620,31 @@
       </c>
       <c r="D6" t="s">
         <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6">
+        <f>K3-K4+K5</f>
+        <v>25.002859000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <f>D3</f>
+        <v>25.000551000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="30">
+        <f>K6-K7</f>
+        <v>2.3079999999993106E-3</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -2635,7 +2735,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>1.8800000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -2676,7 +2776,7 @@
       </c>
       <c r="H14">
         <f>H13</f>
-        <v>1.8800000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <v>500002.5</v>
@@ -2790,6 +2890,9 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
       <c r="P21" t="s">
         <v>61</v>
       </c>
@@ -2817,8 +2920,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -2854,7 +2957,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>1.8800415116121397E-8</v>
+        <v>0</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>3</v>
@@ -2864,7 +2967,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>1.8800415116121397E-8</v>
+        <v>0</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>2</v>
@@ -2893,7 +2996,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
-        <v>3.7600839250463518E-8</v>
+        <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>5</v>
@@ -2903,7 +3006,7 @@
       </c>
       <c r="K41" s="6">
         <f>G14*H14/M14</f>
-        <v>3.7600839250463518E-8</v>
+        <v>0</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>2</v>
@@ -2995,11 +3098,20 @@
       <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="6">
+        <f>K37+K41</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <f>H37*-1</f>
+        <v>0</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6">
+        <f>H41*-1</f>
+        <v>0</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3099,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3127,7 +3239,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3143,9 +3255,16 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <f>C3</f>
+        <v>25.002766000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8"/>
       <c r="C4">
         <f>C3/35.315</f>
@@ -3155,9 +3274,16 @@
         <f>D3/35.315</f>
         <v>0.70791924111567328</v>
       </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4">
+        <f>E19*300</f>
+        <v>12.499911000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3170,9 +3296,16 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <f>E20*-300</f>
+        <v>-12.499881</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3181,6 +3314,31 @@
       </c>
       <c r="D6" t="s">
         <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6">
+        <f>K3-K4+K5</f>
+        <v>2.9740000000000322E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <f>D3</f>
+        <v>25.000167999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="30">
+        <f>K6-K7</f>
+        <v>-24.997194</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -3263,7 +3421,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>1.8800000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -3304,7 +3462,7 @@
       </c>
       <c r="H14">
         <f>H13</f>
-        <v>1.8800000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <v>500007.5</v>
@@ -3445,8 +3603,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -3482,7 +3640,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>1.8800415116121397E-8</v>
+        <v>0</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>2</v>
@@ -3492,7 +3650,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>1.8800415116121397E-8</v>
+        <v>0</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>3</v>
@@ -3521,7 +3679,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
-        <v>3.7600288772966896E-8</v>
+        <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>7</v>
@@ -3531,7 +3689,7 @@
       </c>
       <c r="K41" s="6">
         <f>G14*H14/M14</f>
-        <v>3.7600288772966896E-8</v>
+        <v>0</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>3</v>
@@ -3623,13 +3781,22 @@
       <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="6">
+        <f>-H37</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <f>K37+K41</f>
+        <v>0</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6">
+        <f>-H41</f>
+        <v>0</v>
+      </c>
       <c r="I49" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -3728,8 +3895,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
   <dimension ref="A1:P52"/>
   <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>21.000109999999999</v>
+      </c>
+      <c r="D3">
+        <v>21.000022999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="29">
+        <f>C3-D3</f>
+        <v>8.7000000000614364E-5</v>
+      </c>
+      <c r="G3" s="29">
+        <f>12.500004-F3</f>
+        <v>12.499917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="8"/>
+      <c r="C4">
+        <f>C3/35.315</f>
+        <v>0.59465128132521594</v>
+      </c>
+      <c r="D4">
+        <f>D3/35.315</f>
+        <v>0.59464881778281187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-4.1666679999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>-8.3331499999999992E-3</v>
+      </c>
+      <c r="G13">
+        <f>E13/F13</f>
+        <v>5.0001116024552541</v>
+      </c>
+      <c r="H13">
+        <f>Constants!B6</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>500002.5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>500000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="M13">
+        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>-4.1666679999999998E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H22" s="3"/>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="N36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B37" s="8">
+        <f>D3/D5</f>
+        <v>7.0000076666666661E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9">
+        <f>C3/C5*C6</f>
+        <v>7.0000366666666665</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6">
+        <f>G13*H13/M13</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="6">
+        <f>G13*H13/M13</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="7">
+        <f>E19*G19</f>
+        <v>4.1666679999999998E-2</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
+        <f>B37</f>
+        <v>7.0000076666666661E-2</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <f>N37</f>
+        <v>4.1666679999999998E-2</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6">
+        <f>-H37</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <f>K37</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <f>SUM(B47:B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.11166675666666666</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <f>E37</f>
+        <v>7.0000366666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <f>B47+B48</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.11166675666666666</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>E37</f>
+        <v>7.0000366666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3756,15 +4471,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>21.000109999999999</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>21.000022999999999</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
@@ -3774,22 +4489,22 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8"/>
       <c r="C4">
         <f>C3/35.315</f>
-        <v>0.59465128132521594</v>
+        <v>0.56633158714427301</v>
       </c>
       <c r="D4">
         <f>D3/35.315</f>
-        <v>0.59464881778281187</v>
+        <v>0.59464816650148666</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3804,7 +4519,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3875,36 +4590,36 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>-4.1666679999999998E-2</v>
+        <v>4.1666269999999998E-2</v>
       </c>
       <c r="F13">
-        <v>-8.3331499999999992E-3</v>
+        <v>8.3331900000000007E-3</v>
       </c>
       <c r="G13">
         <f>E13/F13</f>
-        <v>5.0001116024552541</v>
+        <v>5.0000384006604905</v>
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>1.8800000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>500002.5</v>
+        <v>500007.5</v>
       </c>
       <c r="J13" s="5">
         <v>102.5</v>
       </c>
       <c r="K13" s="5">
-        <v>500000</v>
+        <v>500010</v>
       </c>
       <c r="L13" s="5">
         <v>102.5</v>
@@ -3919,9 +4634,6 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="P14" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P15" t="s">
@@ -3967,25 +4679,25 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>-4.1666679999999998E-2</v>
+        <v>4.1666269999999998E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>59</v>
@@ -4024,8 +4736,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4041,17 +4753,17 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" s="8">
         <f>D3/D5</f>
-        <v>7.0000076666666661E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="9">
         <f>C3/C5*C6</f>
-        <v>7.0000366666666665</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -4061,551 +4773,17 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>3.7600839250463518E-8</v>
+        <v>0</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>3.7600839250463518E-8</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="7">
-        <f>E19*G19</f>
-        <v>4.1666679999999998E-2</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8">
-        <f>B37</f>
-        <v>7.0000076666666661E-2</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
-        <f>N37</f>
-        <v>4.1666679999999998E-2</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B47:B49)</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0.11166675666666666</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="10">
-        <f>E37</f>
-        <v>7.0000366666666665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52">
-        <f>B47+B48</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0.11166675666666666</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>E37</f>
-        <v>7.0000366666666665</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B36:C36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
-  <dimension ref="A1:P52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="8"/>
-      <c r="C4">
-        <f>C3/35.315</f>
-        <v>0.59464816650148666</v>
-      </c>
-      <c r="D4">
-        <f>D3/35.315</f>
-        <v>0.59464816650148666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>4.1666269999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>8.3331900000000007E-3</v>
-      </c>
-      <c r="G13">
-        <f>E13/F13</f>
-        <v>5.0000384006604905</v>
-      </c>
-      <c r="H13">
-        <f>Constants!B6</f>
-        <v>1.8800000000000003E-8</v>
-      </c>
-      <c r="I13" s="5">
-        <v>500007.5</v>
-      </c>
-      <c r="J13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="K13" s="5">
-        <v>500010</v>
-      </c>
-      <c r="L13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="M13">
-        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>4.1666269999999998E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="H22" s="3"/>
-      <c r="P22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="H36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="N36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
-        <f>D3/D5</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9">
-        <f>C3/C5*C6</f>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="6">
-        <f>G13*H13/M13</f>
-        <v>3.7600288772966896E-8</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="6">
-        <f>G13*H13/M13</f>
-        <v>3.7600288772966896E-8</v>
+        <v>0</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>7</v>
@@ -4698,12 +4876,18 @@
         <v>55</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6">
+        <f>-H37</f>
+        <v>0</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6">
+        <f>K37</f>
+        <v>0</v>
+      </c>
       <c r="I49" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -4744,7 +4928,7 @@
       </c>
       <c r="M51" s="10">
         <f>E37</f>
-        <v>7.0000000000000009</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -4785,7 +4969,7 @@
       </c>
       <c r="M52">
         <f>E37</f>
-        <v>7.0000000000000009</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4800,29 +4984,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
-  <dimension ref="B1:Z19"/>
+  <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="J7" zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -4835,7 +5025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -4867,7 +5057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4921,12 +5111,12 @@
         <f>N3-S3</f>
         <v>7.6933333333251142E-4</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="26">
         <f>N3/S3 - 1</f>
         <v>9.2318308728467358E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -4979,12 +5169,12 @@
         <f t="shared" ref="V4:V10" si="0">N4-S4</f>
         <v>8.7599999999987688E-4</v>
       </c>
-      <c r="W4" s="29">
-        <f t="shared" ref="W4:W10" si="1">N4/S4 - 1</f>
+      <c r="W4" s="26">
+        <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
         <v>1.0511941974078454E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -5028,9 +5218,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="29"/>
-    </row>
-    <row r="6" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -5074,9 +5264,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="29"/>
-    </row>
-    <row r="7" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -5122,12 +5312,12 @@
         <f t="shared" si="0"/>
         <v>2.7666666666092965E-5</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="26">
         <f t="shared" si="1"/>
         <v>2.477609943429826E-6</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -5171,9 +5361,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="29"/>
-    </row>
-    <row r="9" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -5196,7 +5386,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="25">
         <v>0.11166626440000001</v>
       </c>
       <c r="J9">
@@ -5205,9 +5395,9 @@
       <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9">
         <f>'Cell 6'!M51</f>
-        <v>7.0000000000000009</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="R9">
         <v>100</v>
@@ -5217,17 +5407,17 @@
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>5.6000000103750835E-7</v>
-      </c>
-      <c r="W9" s="29">
+        <v>-0.33333277333333289</v>
+      </c>
+      <c r="W9" s="26">
         <f t="shared" si="1"/>
-        <v>8.000000661922968E-8</v>
-      </c>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-    </row>
-    <row r="10" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-4.7618971428565304E-2</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -5271,12 +5461,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="29"/>
-    </row>
-    <row r="11" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V11" s="28"/>
-    </row>
-    <row r="12" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="26"/>
+    </row>
+    <row r="12" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -5285,7 +5472,7 @@
         <v>100.00623717684918</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -5300,15 +5487,18 @@
         <f>(12.5+21.00011)/300*100</f>
         <v>11.166703333333333</v>
       </c>
-    </row>
-    <row r="14" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
+      <c r="M14" s="25"/>
       <c r="N14" t="s">
         <v>74</v>
       </c>
@@ -5316,8 +5506,11 @@
         <f>12.49987932/300</f>
         <v>4.16662644E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -5325,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -5346,7 +5539,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>100.00339567856261</v>
+        <v>97.018310298261014</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5379,16 +5572,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D288744-0C5D-400C-B306-9BCD7BBC6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5848EEE2-F5CB-493C-A3EA-8FD86EAA7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
   <si>
     <t>n+1</t>
   </si>
@@ -293,27 +293,12 @@
     <t>ft3</t>
   </si>
   <si>
-    <t>add ghost volume flowing in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assume everything advecting in </t>
-  </si>
-  <si>
-    <t>essentially to account for "advection" back into that cell? Since there's no upstream.</t>
-  </si>
-  <si>
-    <t>completes the upwinds method but without another cell on the receiving end</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0360132319308030</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>&lt;-- this value (7) is equal to if we had the same volume at t=1</t>
-  </si>
-  <si>
     <t>initial</t>
   </si>
   <si>
@@ -333,6 +318,42 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>flow in</t>
+  </si>
+  <si>
+    <t>delta v</t>
+  </si>
+  <si>
+    <t>flow out</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>"upwind" advection out</t>
+  </si>
+  <si>
+    <t>voluem out</t>
+  </si>
+  <si>
+    <t>volume in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make up for nothing flowing in </t>
+  </si>
+  <si>
+    <t>((volume out) + (delta V) + (volume) )/ (delta t) * 100</t>
+  </si>
+  <si>
+    <t>advection: (volume in) - (delta V) / delta T</t>
+  </si>
+  <si>
+    <t>&lt;-- this is equal to the difference between flow in and flow out for this cell.</t>
+  </si>
+  <si>
+    <t>&lt;--this is equal to the difference between flow in and flow out for this cell</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -608,14 +629,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,6 +657,83 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>692731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDE4565-B3C2-EF4A-8DED-517B34810C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7534" t="15860" r="12198" b="3150"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1695450" y="3486150"/>
+          <a:ext cx="9248775" cy="7007806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -645,9 +743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>83945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,7 +781,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -732,7 +830,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -781,7 +879,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -794,7 +892,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>83945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,7 +1228,7 @@
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1159,6 +1257,7 @@
     <row r="3" spans="2:6" ht="110.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1176,16 +1275,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1343,16 +1442,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1519,16 +1618,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1656,16 +1755,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1712,11 +1811,11 @@
       </c>
       <c r="C3">
         <f>Matrix!C3+'Delta T'!C3+'Distance Between Cells'!C3</f>
-        <v>0.166667906</v>
+        <v>0.16966797272162687</v>
       </c>
       <c r="D3">
         <f>Matrix!D3+'Delta T'!D3+'Distance Between Cells'!D3</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="E3">
         <f>Matrix!E3+'Delta T'!E3+'Distance Between Cells'!E3</f>
@@ -1728,7 +1827,7 @@
       </c>
       <c r="G3">
         <f>Matrix!G3+'Delta T'!G3+'Distance Between Cells'!G3</f>
-        <v>-8.3333362999999994E-2</v>
+        <v>-8.5333407640982101E-2</v>
       </c>
       <c r="H3">
         <f>Matrix!H3+'Delta T'!H3+'Distance Between Cells'!H3</f>
@@ -1751,11 +1850,11 @@
       </c>
       <c r="C4">
         <f>Matrix!C4+'Delta T'!C4+'Distance Between Cells'!C4</f>
-        <v>-8.3332736000000004E-2</v>
+        <v>-8.4332758080644762E-2</v>
       </c>
       <c r="D4">
         <f>Matrix!D4+'Delta T'!D4+'Distance Between Cells'!D4</f>
-        <v>0.16666642933333334</v>
+        <v>0.1696664667742423</v>
       </c>
       <c r="E4">
         <f>Matrix!E4+'Delta T'!E4+'Distance Between Cells'!E4</f>
@@ -1775,7 +1874,7 @@
       </c>
       <c r="I4">
         <f>Matrix!I4+'Delta T'!I4+'Distance Between Cells'!I4</f>
-        <v>0</v>
+        <v>-2.0000153602641965E-3</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1880,7 +1979,7 @@
       </c>
       <c r="C7">
         <f>Matrix!C7+'Delta T'!C7+'Distance Between Cells'!C7</f>
-        <v>0</v>
+        <v>-2.0000446409821015E-3</v>
       </c>
       <c r="D7">
         <f>Matrix!D7+'Delta T'!D7+'Distance Between Cells'!D7</f>
@@ -1896,7 +1995,7 @@
       </c>
       <c r="G7">
         <f>Matrix!G7+'Delta T'!G7+'Distance Between Cells'!G7</f>
-        <v>0.15333343966666665</v>
+        <v>0.15533348430764876</v>
       </c>
       <c r="H7">
         <f>Matrix!H7+'Delta T'!H7+'Distance Between Cells'!H7</f>
@@ -1962,7 +2061,7 @@
       </c>
       <c r="D9">
         <f>Matrix!D9+'Delta T'!D9+'Distance Between Cells'!D9</f>
-        <v>-8.3332535999999999E-2</v>
+        <v>-8.5332551360264186E-2</v>
       </c>
       <c r="E9">
         <f>Matrix!E9+'Delta T'!E9+'Distance Between Cells'!E9</f>
@@ -1982,7 +2081,7 @@
       </c>
       <c r="I9">
         <f>Matrix!I9+'Delta T'!I9+'Distance Between Cells'!I9</f>
-        <v>0.1533325304</v>
+        <v>0.15199921802693087</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -1997,7 +2096,7 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12:E18">MMULT(MINVERSE(C3:I9), M3:M9)</f>
-        <v>86.418045405955098</v>
+        <v>86.38556536335129</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2005,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>93.214377029010848</v>
+        <v>93.193117041125248</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2029,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>72.826287472852826</v>
+        <v>73.000874177074095</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2045,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>94.138256627598707</v>
+        <v>96.178607382121001</v>
       </c>
     </row>
   </sheetData>
@@ -2068,16 +2167,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2124,11 +2223,11 @@
       </c>
       <c r="C3">
         <f>Matrix!C3+'Delta T'!C3+'Face Area'!C3+'Distance Between Cells'!C3</f>
-        <v>0.46667467708764598</v>
+        <v>0.46967474380927288</v>
       </c>
       <c r="D3">
         <f>Matrix!D3+'Delta T'!D3+'Face Area'!D3+'Distance Between Cells'!D3</f>
-        <v>-0.100002250671386</v>
+        <v>-0.10100227275203076</v>
       </c>
       <c r="E3">
         <f>Matrix!E3+'Delta T'!E3+'Face Area'!E3+'Distance Between Cells'!E3</f>
@@ -2140,7 +2239,7 @@
       </c>
       <c r="G3">
         <f>Matrix!G3+'Delta T'!G3+'Face Area'!G3+'Distance Between Cells'!G3</f>
-        <v>-0.28333788341624999</v>
+        <v>-0.28533792805723213</v>
       </c>
       <c r="H3">
         <f>Matrix!H3+'Delta T'!H3+'Face Area'!H3+'Distance Between Cells'!H3</f>
@@ -2163,11 +2262,11 @@
       </c>
       <c r="C4">
         <f>Matrix!C4+'Delta T'!C4+'Face Area'!C4+'Distance Between Cells'!C4</f>
-        <v>-0.18333498667138601</v>
+        <v>-0.18433500875203077</v>
       </c>
       <c r="D4">
         <f>Matrix!D4+'Delta T'!D4+'Face Area'!D4+'Distance Between Cells'!D4</f>
-        <v>0.46667009144270832</v>
+        <v>0.46967012888361731</v>
       </c>
       <c r="E4">
         <f>Matrix!E4+'Delta T'!E4+'Face Area'!E4+'Distance Between Cells'!E4</f>
@@ -2187,7 +2286,7 @@
       </c>
       <c r="I4">
         <f>Matrix!I4+'Delta T'!I4+'Face Area'!I4+'Distance Between Cells'!I4</f>
-        <v>-0.200001411437988</v>
+        <v>-0.2020014267982522</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -2292,7 +2391,7 @@
       </c>
       <c r="C7">
         <f>Matrix!C7+'Delta T'!C7+'Face Area'!C7+'Distance Between Cells'!C7</f>
-        <v>-0.20000452041625899</v>
+        <v>-0.2020045650572411</v>
       </c>
       <c r="D7">
         <f>Matrix!D7+'Delta T'!D7+'Face Area'!D7+'Distance Between Cells'!D7</f>
@@ -2308,7 +2407,7 @@
       </c>
       <c r="G7">
         <f>Matrix!G7+'Delta T'!G7+'Face Area'!G7+'Distance Between Cells'!G7</f>
-        <v>0.35333796008292562</v>
+        <v>0.35533800472390775</v>
       </c>
       <c r="H7">
         <f>Matrix!H7+'Delta T'!H7+'Face Area'!H7+'Distance Between Cells'!H7</f>
@@ -2374,7 +2473,7 @@
       </c>
       <c r="D9">
         <f>Matrix!D9+'Delta T'!D9+'Face Area'!D9+'Distance Between Cells'!D9</f>
-        <v>-0.28333394743798801</v>
+        <v>-0.28533396279825218</v>
       </c>
       <c r="E9">
         <f>Matrix!E9+'Delta T'!E9+'Face Area'!E9+'Distance Between Cells'!E9</f>
@@ -2394,7 +2493,7 @@
       </c>
       <c r="I9">
         <f>Matrix!I9+'Delta T'!I9+'Face Area'!I9+'Distance Between Cells'!I9</f>
-        <v>0.353333941837988</v>
+        <v>0.35200062946491883</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -2409,7 +2508,7 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12:E18">MMULT(MINVERSE(C3:I9), M3:M9)</f>
-        <v>86.196407771651906</v>
+        <v>86.436906110567477</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2417,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>91.124549055209599</v>
+        <v>91.830497482739418</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2441,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>80.394352046615055</v>
+        <v>80.563729180524291</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2457,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>91.939496924643251</v>
+        <v>93.377748980495568</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2589,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -2500,7 +2599,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2612,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K8"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2524,6 +2623,7 @@
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2540,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
@@ -2560,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <f>C3</f>
@@ -2583,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <f>E19*300</f>
@@ -2604,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K5">
         <f>E20*-300</f>
@@ -2622,7 +2722,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
@@ -2631,7 +2731,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -2639,12 +2739,16 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="J8" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="J8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="28">
         <f>K6-K7</f>
         <v>2.3079999999993106E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>K8/300 *100</f>
+        <v>7.6933333333310361E-4</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -2735,7 +2839,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -2776,7 +2880,7 @@
       </c>
       <c r="H14">
         <f>H13</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I14" s="5">
         <v>500002.5</v>
@@ -2891,7 +2995,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s">
         <v>61</v>
@@ -2920,8 +3024,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -2957,7 +3061,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>1.0000220806447549E-3</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>3</v>
@@ -2967,7 +3071,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>1.0000220806447549E-3</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>2</v>
@@ -2996,7 +3100,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
-        <v>0</v>
+        <v>2.0000446409821015E-3</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>5</v>
@@ -3006,7 +3110,7 @@
       </c>
       <c r="K41" s="6">
         <f>G14*H14/M14</f>
-        <v>0</v>
+        <v>2.0000446409821015E-3</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>2</v>
@@ -3100,17 +3204,17 @@
       </c>
       <c r="B49" s="6">
         <f>K37+K41</f>
-        <v>0</v>
+        <v>3.0000667216268564E-3</v>
       </c>
       <c r="C49" s="6">
         <f>H37*-1</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6">
         <f>H41*-1</f>
-        <v>0</v>
+        <v>-2.0000446409821015E-3</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3122,11 +3226,11 @@
       </c>
       <c r="B51">
         <f>SUM(B47:B49)</f>
-        <v>0.12500153999999999</v>
+        <v>0.12800160672162686</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -3138,7 +3242,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>-4.1666679999999998E-2</v>
+        <v>-4.3666724640982098E-2</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
@@ -3163,11 +3267,11 @@
       </c>
       <c r="B52">
         <f>SUM(B47:B49)</f>
-        <v>0.12500153999999999</v>
+        <v>0.12800160672162686</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:I52" si="1">SUM(C47:C49)</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -3179,7 +3283,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>-4.1666679999999998E-2</v>
+        <v>-4.3666724640982098E-2</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
@@ -3211,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3239,7 +3343,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3360,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <f>C3</f>
@@ -3264,7 +3368,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8"/>
       <c r="C4">
         <f>C3/35.315</f>
@@ -3275,37 +3379,37 @@
         <v>0.70791924111567328</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K4">
+        <f>E20*300</f>
+        <v>12.499881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5">
         <f>E19*300</f>
         <v>12.499911000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <f>E20*-300</f>
-        <v>-12.499881</v>
-      </c>
-    </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3316,16 +3420,16 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
-        <v>2.9740000000000322E-3</v>
+        <v>25.002796000000004</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -3333,12 +3437,16 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J8" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="J8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="28">
         <f>K6-K7</f>
-        <v>-24.997194</v>
+        <v>2.6280000000049597E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>K8/300*100</f>
+        <v>8.7600000000165313E-4</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -3421,7 +3529,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -3462,7 +3570,7 @@
       </c>
       <c r="H14">
         <f>H13</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I14" s="5">
         <v>500007.5</v>
@@ -3603,8 +3711,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -3640,7 +3748,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>1.0000220806447549E-3</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>2</v>
@@ -3650,7 +3758,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>1.0000220806447549E-3</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>3</v>
@@ -3679,7 +3787,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
-        <v>0</v>
+        <v>2.0000153602641965E-3</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>7</v>
@@ -3689,7 +3797,7 @@
       </c>
       <c r="K41" s="6">
         <f>G14*H14/M14</f>
-        <v>0</v>
+        <v>2.0000153602641965E-3</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>3</v>
@@ -3783,11 +3891,11 @@
       </c>
       <c r="B49" s="6">
         <f>-H37</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="C49" s="6">
         <f>K37+K41</f>
-        <v>0</v>
+        <v>3.0000374409089514E-3</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3795,7 +3903,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6">
         <f>-H41</f>
-        <v>0</v>
+        <v>-2.0000153602641965E-3</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -3805,11 +3913,11 @@
       </c>
       <c r="B51">
         <f>SUM(B47:B49)</f>
-        <v>-4.1666370000000001E-2</v>
+        <v>-4.2666392080644759E-2</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>0.12500016333333333</v>
+        <v>0.12800020077424229</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -3829,7 +3937,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.0000153602641965E-3</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -3893,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3909,12 +4017,12 @@
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -3922,8 +4030,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3936,17 +4044,24 @@
       <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <f>C3-D3</f>
         <v>8.7000000000614364E-5</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <f>12.500004-F3</f>
         <v>12.499917</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3">
+        <f>E19*D5*-1</f>
+        <v>12.500003999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
       <c r="B4" s="8"/>
       <c r="C4">
         <f>C3/35.315</f>
@@ -3959,9 +4074,16 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <f>D3-C3</f>
+        <v>-8.7000000000614364E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3974,9 +4096,22 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5">
+        <f>M4+M3</f>
+        <v>12.499916999999998</v>
+      </c>
+      <c r="O5">
+        <v>12.499916999999998</v>
+      </c>
+      <c r="Q5">
+        <v>12.499916999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3986,8 +4121,15 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <f>M5/300</f>
+        <v>4.1666389999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
@@ -3995,7 +4137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21"/>
       <c r="E11" s="22" t="s">
         <v>32</v>
@@ -4007,7 +4149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -4045,7 +4187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -4067,7 +4209,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -4086,7 +4228,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4095,7 +4237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P15" t="s">
         <v>63</v>
       </c>
@@ -4196,8 +4338,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4233,7 +4375,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>2.0000446409821015E-3</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>2</v>
@@ -4243,7 +4385,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>2.0000446409821015E-3</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>5</v>
@@ -4334,14 +4476,14 @@
       </c>
       <c r="B49" s="6">
         <f>-H37</f>
-        <v>0</v>
+        <v>-2.0000446409821015E-3</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6">
         <f>K37</f>
-        <v>0</v>
+        <v>2.0000446409821015E-3</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -4353,7 +4495,7 @@
       </c>
       <c r="B51">
         <f>SUM(B47:B49)</f>
-        <v>0</v>
+        <v>-2.0000446409821015E-3</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
@@ -4369,7 +4511,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>0.11166675666666666</v>
+        <v>0.11366680130764877</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
@@ -4444,7 +4586,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4471,7 +4613,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -4487,9 +4629,19 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <f>E19*C5</f>
+        <v>12.499881</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8"/>
       <c r="C4">
         <f>C3/35.315</f>
@@ -4502,9 +4654,16 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <f>D3-C3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -4517,9 +4676,16 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5">
+        <f>M3-M4</f>
+        <v>11.499881</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -4528,6 +4694,13 @@
       </c>
       <c r="D6" t="s">
         <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <f>M5/300</f>
+        <v>3.8332936666666664E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -4610,7 +4783,7 @@
       </c>
       <c r="H13">
         <f>Constants!B6</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I13" s="5">
         <v>500007.5</v>
@@ -4736,8 +4909,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4773,7 +4946,7 @@
       </c>
       <c r="H37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>2.0000153602641965E-3</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>3</v>
@@ -4783,7 +4956,7 @@
       </c>
       <c r="K37" s="6">
         <f>G13*H13/M13</f>
-        <v>0</v>
+        <v>2.0000153602641965E-3</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>7</v>
@@ -4866,8 +5039,8 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7">
-        <f>12.49987932/300</f>
-        <v>4.16662644E-2</v>
+        <f>M6</f>
+        <v>3.8332936666666664E-2</v>
       </c>
       <c r="I48" s="7"/>
     </row>
@@ -4878,7 +5051,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6">
         <f>-H37</f>
-        <v>0</v>
+        <v>-2.0000153602641965E-3</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -4886,7 +5059,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6">
         <f>K37</f>
-        <v>0</v>
+        <v>2.0000153602641965E-3</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -4900,7 +5073,7 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>-4.1666269999999998E-2</v>
+        <v>-4.3666285360264193E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -4920,7 +5093,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0.11166626440000001</v>
+        <v>0.11033295202693087</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -4961,7 +5134,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>0.11166626440000001</v>
+        <v>0.10833293666666667</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -4986,33 +5159,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
     <col min="18" max="18" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.36328125" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.54296875" customWidth="1"/>
     <col min="26" max="26" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -5024,6 +5198,9 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="S1">
+        <v>12.499917</v>
+      </c>
     </row>
     <row r="2" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
@@ -5063,11 +5240,11 @@
       </c>
       <c r="C3">
         <f>'Cell 0'!B51</f>
-        <v>0.12500153999999999</v>
+        <v>0.12800160672162686</v>
       </c>
       <c r="D3">
         <f>'Cell 0'!C51</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="E3">
         <f>'Cell 0'!D51</f>
@@ -5079,7 +5256,7 @@
       </c>
       <c r="G3">
         <f>'Cell 0'!F51</f>
-        <v>-4.1666679999999998E-2</v>
+        <v>-4.3666724640982098E-2</v>
       </c>
       <c r="H3">
         <f>'Cell 0'!G51</f>
@@ -5115,6 +5292,9 @@
         <f>N3/S3 - 1</f>
         <v>9.2318308728467358E-5</v>
       </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
@@ -5122,11 +5302,11 @@
       </c>
       <c r="C4">
         <f>'Cell 1'!B51</f>
-        <v>-4.1666370000000001E-2</v>
+        <v>-4.2666392080644759E-2</v>
       </c>
       <c r="D4">
         <f>'Cell 1'!C51</f>
-        <v>0.12500016333333333</v>
+        <v>0.12800020077424229</v>
       </c>
       <c r="E4">
         <f>'Cell 1'!D51</f>
@@ -5146,7 +5326,7 @@
       </c>
       <c r="I4">
         <f>'Cell 1'!H51</f>
-        <v>0</v>
+        <v>-2.0000153602641965E-3</v>
       </c>
       <c r="J4">
         <f>'Cell 1'!I51</f>
@@ -5173,6 +5353,9 @@
         <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
         <v>1.0511941974078454E-4</v>
       </c>
+      <c r="X4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
@@ -5272,7 +5455,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:J7">'Cell 4'!B51:I51</f>
-        <v>0</v>
+        <v>-2.0000446409821015E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5284,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.11166675666666666</v>
+        <v>0.11366680130764877</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5299,8 +5482,8 @@
         <v>5</v>
       </c>
       <c r="N7" s="4">
-        <f>(12.5+21.00011)/300*100</f>
-        <v>11.166703333333333</v>
+        <f>(12.499917+21.00011)/300*100</f>
+        <v>11.166675666666666</v>
       </c>
       <c r="R7">
         <v>100</v>
@@ -5310,11 +5493,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>2.7666666666092965E-5</v>
+        <v>0</v>
       </c>
       <c r="W7" s="26">
         <f t="shared" si="1"/>
-        <v>2.477609943429826E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5372,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-4.1666269999999998E-2</v>
+        <v>-4.3666285360264193E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5387,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="25">
-        <v>0.11166626440000001</v>
+        <v>0.11033295202693087</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5403,18 +5586,15 @@
         <v>100</v>
       </c>
       <c r="S9">
-        <v>6.9999994399999999</v>
+        <v>6.6666666666666687</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>-0.33333277333333289</v>
+        <v>0</v>
       </c>
       <c r="W9" s="26">
         <f t="shared" si="1"/>
-        <v>-4.7618971428565304E-2</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5469,7 +5649,7 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12:E19">MMULT(MINVERSE(C3:J10), N3:N10)</f>
-        <v>100.00623717684918</v>
+        <v>100.00611688705736</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5477,18 +5657,18 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>100.00908703227311</v>
+        <v>100.00893795688603</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="Q13">
-        <f>(12.5+21.00011)/300*100</f>
-        <v>11.166703333333333</v>
+        <f>N7</f>
+        <v>11.166675666666666</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5500,14 +5680,14 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="Q14">
-        <f>12.49987932/300</f>
-        <v>4.16662644E-2</v>
+        <f>'Cell 6'!M6</f>
+        <v>3.8332936666666664E-2</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5523,7 +5703,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>100.00024776099434</v>
+        <v>100.00010763078615</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5539,7 +5719,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>97.018310298261014</v>
+        <v>100.00353736004297</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5572,16 +5752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -5632,11 +5812,11 @@
       </c>
       <c r="C3">
         <f>'Cell 0'!B52</f>
-        <v>0.12500153999999999</v>
+        <v>0.12800160672162686</v>
       </c>
       <c r="D3">
         <f>'Cell 0'!C52</f>
-        <v>0</v>
+        <v>-1.0000220806447549E-3</v>
       </c>
       <c r="E3">
         <f>'Cell 0'!D52</f>
@@ -5648,7 +5828,7 @@
       </c>
       <c r="G3">
         <f>'Cell 0'!F52</f>
-        <v>-4.1666679999999998E-2</v>
+        <v>-4.3666724640982098E-2</v>
       </c>
       <c r="H3">
         <f>'Cell 0'!G52</f>

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5848EEE2-F5CB-493C-A3EA-8FD86EAA7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C9EFE-E2DB-44D4-AE96-037D31E37A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="94">
   <si>
     <t>n+1</t>
   </si>
@@ -302,15 +302,9 @@
     <t>initial</t>
   </si>
   <si>
-    <t>mb</t>
-  </si>
-  <si>
     <t>loss</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>calculated</t>
   </si>
   <si>
@@ -350,10 +344,16 @@
     <t>advection: (volume in) - (delta V) / delta T</t>
   </si>
   <si>
-    <t>&lt;-- this is equal to the difference between flow in and flow out for this cell.</t>
-  </si>
-  <si>
-    <t>&lt;--this is equal to the difference between flow in and flow out for this cell</t>
+    <t>&lt;--this is equal to the difference between volume in and volume out for this cell</t>
+  </si>
+  <si>
+    <t>&lt;-- this is equal to the difference between volume in and volume out for this cell.</t>
+  </si>
+  <si>
+    <t>mass balance</t>
+  </si>
+  <si>
+    <t>gain</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,23 +666,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>364367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>692731</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>643547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDE4565-B3C2-EF4A-8DED-517B34810C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F99F73-85BA-6C2E-9F0F-37FE33444322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +690,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -691,13 +698,15 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7534" t="15860" r="12198" b="3150"/>
-        <a:stretch/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1695450" y="3486150"/>
-          <a:ext cx="9248775" cy="7007806"/>
+          <a:off x="10023928" y="364367"/>
+          <a:ext cx="7777239" cy="5909513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,7 +801,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
@@ -1227,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E29825-4C9A-405C-9D4D-EC3EEE786EB2}">
   <dimension ref="B1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2611,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2623,6 +2632,7 @@
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
     <col min="13" max="13" width="8.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2640,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
@@ -2683,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <f>E19*300</f>
@@ -2704,7 +2714,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <f>E20*-300</f>
@@ -2722,7 +2732,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
@@ -2731,7 +2741,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -2740,13 +2750,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J8" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="28">
         <f>K6-K7</f>
         <v>2.3079999999993106E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="31">
         <f>K8/300 *100</f>
         <v>7.6933333333310361E-4</v>
       </c>
@@ -3315,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3326,6 +3336,7 @@
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3341,6 +3352,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
@@ -3379,7 +3393,7 @@
         <v>0.70791924111567328</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <f>E20*300</f>
@@ -3401,7 +3415,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <f>E19*300</f>
@@ -3420,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
@@ -3429,7 +3443,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -3438,13 +3452,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J8" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="28">
         <f>K6-K7</f>
         <v>2.6280000000049597E-3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="31">
         <f>K8/300*100</f>
         <v>8.7600000000165313E-4</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>12.499917</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3">
         <f>E19*D5*-1</f>
@@ -4075,7 +4089,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4097,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <f>M4+M3</f>
@@ -4122,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -4630,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <f>E19*C5</f>
@@ -4655,7 +4669,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4677,7 +4691,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5">
         <f>M3-M4</f>
@@ -4696,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -5159,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5284,7 +5298,7 @@
         <f t="array" ref="S3:S10">MMULT(C3:J10, R3:R10)</f>
         <v>8.3334860000000006</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="31">
         <f>N3-S3</f>
         <v>7.6933333333251142E-4</v>
       </c>
@@ -5293,7 +5307,7 @@
         <v>9.2318308728467358E-5</v>
       </c>
       <c r="X3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5345,7 +5359,7 @@
       <c r="S4">
         <v>8.3333793333333332</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="31">
         <f t="shared" ref="V4:V10" si="0">N4-S4</f>
         <v>8.7599999999987688E-4</v>
       </c>
@@ -5354,7 +5368,7 @@
         <v>1.0511941974078454E-4</v>
       </c>
       <c r="X4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5661,14 +5675,14 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q13">
         <f>N7</f>
         <v>11.166675666666666</v>
       </c>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5680,14 +5694,14 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q14">
         <f>'Cell 6'!M6</f>
         <v>3.8332936666666664E-2</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C9EFE-E2DB-44D4-AE96-037D31E37A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816073A1-1B35-4FF3-91E1-185942980D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>http://www.hypertextbookshop.com/biofilmbook/working_version/artifacts/tables/Module_004/Table4-1_DiffCoeffH2O.htm</t>
   </si>
   <si>
-    <t>ft3</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0360132319308030</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>gain</t>
+  </si>
+  <si>
+    <t>ft3? M3?</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +650,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,16 +673,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>641803</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>364367</xdr:rowOff>
+      <xdr:rowOff>983492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>643547</xdr:rowOff>
+      <xdr:rowOff>1262672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -705,8 +712,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10023928" y="364367"/>
-          <a:ext cx="7777239" cy="5909513"/>
+          <a:off x="11420928" y="983492"/>
+          <a:ext cx="7803697" cy="5867180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,6 +794,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE36BA46-F1B6-B1C8-2D4C-DAC6B4743FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615951" y="4959351"/>
+          <a:ext cx="3613150" cy="787570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -828,6 +879,50 @@
         <a:xfrm>
           <a:off x="7943850" y="2600325"/>
           <a:ext cx="3371850" cy="925320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EFA132-4A75-4DDB-9381-5ED5F106925E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="4978400"/>
+          <a:ext cx="3613150" cy="787570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,6 +980,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33FB7B2-BB86-487A-A5CE-7CAADE1E0B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="4953000"/>
+          <a:ext cx="3613150" cy="787570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -926,6 +1065,50 @@
         <a:xfrm>
           <a:off x="7943850" y="2597150"/>
           <a:ext cx="3371850" cy="928495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>120820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5010FD2-82FF-4631-9387-364BEC8F2D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615950" y="5041900"/>
+          <a:ext cx="3613150" cy="787570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E29825-4C9A-405C-9D4D-EC3EEE786EB2}">
   <dimension ref="B1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2791,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2620,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2650,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
@@ -2664,13 +2847,13 @@
         <v>25.000551000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3">
         <f>C3</f>
@@ -2681,19 +2864,19 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="32">
         <f>C3/35.315</f>
         <v>0.70799280758884331</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="32">
         <f>D3/35.315</f>
         <v>0.70793008636556709</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <f>E19*300</f>
@@ -2714,7 +2897,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5">
         <f>E20*-300</f>
@@ -2732,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
@@ -2741,7 +2924,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -2750,7 +2933,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J8" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="28">
         <f>K6-K7</f>
@@ -3005,7 +3188,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s">
         <v>61</v>
@@ -3325,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3353,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -3368,13 +3551,13 @@
         <v>25.000167999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3">
         <f>C3</f>
@@ -3384,16 +3567,17 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
       <c r="B4" s="8"/>
-      <c r="C4">
+      <c r="C4" s="32">
         <f>C3/35.315</f>
         <v>0.70799280758884331</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="32">
         <f>D3/35.315</f>
         <v>0.70791924111567328</v>
       </c>
+      <c r="E4" s="32"/>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <f>E20*300</f>
@@ -3415,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5">
         <f>E19*300</f>
@@ -3434,7 +3618,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6">
         <f>K3-K4+K5</f>
@@ -3443,7 +3627,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7">
         <f>D3</f>
@@ -3452,7 +3636,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J8" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="28">
         <f>K6-K7</f>
@@ -4018,7 +4202,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4056,7 +4240,7 @@
         <v>21.000022999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F3" s="27">
         <f>C3-D3</f>
@@ -4067,7 +4251,7 @@
         <v>12.499917</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3">
         <f>E19*D5*-1</f>
@@ -4077,19 +4261,19 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
       <c r="B4" s="8"/>
-      <c r="C4">
+      <c r="C4" s="32">
         <f>C3/35.315</f>
         <v>0.59465128132521594</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="32">
         <f>D3/35.315</f>
         <v>0.59464881778281187</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="32" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4111,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5">
         <f>M4+M3</f>
@@ -4136,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -4599,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4638,13 +4822,13 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3">
         <f>E19*C5</f>
@@ -4657,19 +4841,19 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
       <c r="B4" s="8"/>
-      <c r="C4">
+      <c r="C4" s="32">
         <f>C3/35.315</f>
         <v>0.56633158714427301</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="32">
         <f>D3/35.315</f>
         <v>0.59464816650148666</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="32" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4691,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M5">
         <f>M3-M4</f>
@@ -4710,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -5307,7 +5491,7 @@
         <v>9.2318308728467358E-5</v>
       </c>
       <c r="X3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5368,7 +5552,7 @@
         <v>1.0511941974078454E-4</v>
       </c>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5675,14 +5859,14 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13">
         <f>N7</f>
         <v>11.166675666666666</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5694,14 +5878,14 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14">
         <f>'Cell 6'!M6</f>
         <v>3.8332936666666664E-2</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816073A1-1B35-4FF3-91E1-185942980D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65DE05-93B9-42F4-88EF-7873605D3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
@@ -311,15 +311,9 @@
     <t>diff</t>
   </si>
   <si>
-    <t>flow in</t>
-  </si>
-  <si>
     <t>delta v</t>
   </si>
   <si>
-    <t>flow out</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
@@ -347,13 +341,19 @@
     <t>&lt;-- this is equal to the difference between volume in and volume out for this cell.</t>
   </si>
   <si>
-    <t>mass balance</t>
-  </si>
-  <si>
     <t>gain</t>
   </si>
   <si>
     <t>ft3? M3?</t>
+  </si>
+  <si>
+    <t>volume balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume in </t>
+  </si>
+  <si>
+    <t>volume out</t>
   </si>
 </sst>
 </file>
@@ -673,16 +673,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641803</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>983492</xdr:rowOff>
+      <xdr:rowOff>602492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>746125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1262672</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,8 +712,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11420928" y="983492"/>
-          <a:ext cx="7803697" cy="5867180"/>
+          <a:off x="10055678" y="602492"/>
+          <a:ext cx="10375447" cy="7800740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,7 +2804,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2847,7 +2847,7 @@
         <v>25.000551000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -2897,7 +2897,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <f>E20*-300</f>
@@ -3509,7 +3509,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3551,7 +3551,7 @@
         <v>25.000167999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -3599,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <f>E19*300</f>
@@ -4201,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4240,7 +4240,7 @@
         <v>21.000022999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" s="27">
         <f>C3-D3</f>
@@ -4251,7 +4251,7 @@
         <v>12.499917</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M3">
         <f>E19*D5*-1</f>
@@ -4273,7 +4273,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4295,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M5">
         <f>M4+M3</f>
@@ -4320,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -4784,7 +4784,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4822,13 +4822,13 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M3">
         <f>E19*C5</f>
@@ -4853,7 +4853,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4">
         <f>D3-C3</f>
@@ -4875,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M5">
         <f>M3-M4</f>
@@ -4894,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M6">
         <f>M5/300</f>
@@ -5491,7 +5491,7 @@
         <v>9.2318308728467358E-5</v>
       </c>
       <c r="X3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5552,7 +5552,7 @@
         <v>1.0511941974078454E-4</v>
       </c>
       <c r="X4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q13">
         <f>N7</f>
         <v>11.166675666666666</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5878,14 +5878,14 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q14">
         <f>'Cell 6'!M6</f>
         <v>3.8332936666666664E-2</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65DE05-93B9-42F4-88EF-7873605D3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36BAC4-1BA2-4405-B519-8F2220A451A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
   <si>
     <t>n+1</t>
   </si>
@@ -758,10 +758,10 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>83945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +803,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>101601</xdr:colOff>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>38271</xdr:rowOff>
     </xdr:to>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E29825-4C9A-405C-9D4D-EC3EEE786EB2}">
   <dimension ref="B1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2814,8 +2814,9 @@
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
     <col min="13" max="13" width="8.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2847,10 +2848,7 @@
         <v>25.000551000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
@@ -4201,7 +4199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -4783,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -5357,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36BAC4-1BA2-4405-B519-8F2220A451A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA30BFA-DE21-4722-BC6D-CAE1C2B625A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="7" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Cell 4" sheetId="16" r:id="rId5"/>
     <sheet name="Cell 6" sheetId="17" r:id="rId6"/>
     <sheet name="Matrix" sheetId="2" r:id="rId7"/>
-    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
-    <sheet name="Delta T" sheetId="1" r:id="rId10"/>
-    <sheet name="Face Area" sheetId="4" r:id="rId11"/>
-    <sheet name="Distance Between Cells" sheetId="8" r:id="rId12"/>
-    <sheet name="Flow Across Face" sheetId="10" r:id="rId13"/>
-    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId14"/>
-    <sheet name="Total" sheetId="6" r:id="rId15"/>
+    <sheet name="Matrix-Real-Only" sheetId="19" r:id="rId8"/>
+    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="Delta T" sheetId="1" r:id="rId11"/>
+    <sheet name="Face Area" sheetId="4" r:id="rId12"/>
+    <sheet name="Distance Between Cells" sheetId="8" r:id="rId13"/>
+    <sheet name="Flow Across Face" sheetId="10" r:id="rId14"/>
+    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId15"/>
+    <sheet name="Total" sheetId="6" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="94">
   <si>
     <t>n+1</t>
   </si>
@@ -601,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,14 +644,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,6 +1456,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094487B4-28D2-4B35-9AEF-1A41EBED104F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8500680-5B59-40AC-AB01-A466D4D431DD}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1467,16 +1481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1623,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995DFA7-E61E-4ADC-BFF8-E39AADF9E9D6}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1634,16 +1648,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1799,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEBBD86-2495-4984-B5F3-6D4DD628368B}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1810,16 +1824,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1924,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FED8B94-C086-4105-BBEE-59F985EE19AB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1936,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCAC273-7DB2-44F4-A0A4-6FE5EDD8BB88}">
   <dimension ref="B1:W18"/>
   <sheetViews>
@@ -1947,16 +1961,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2348,7 +2362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CA6E72-7372-4C3B-AD40-0CE7B3853F9B}">
   <dimension ref="B1:U18"/>
   <sheetViews>
@@ -2359,16 +2373,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2803,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2862,15 +2876,15 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <f>C3/35.315</f>
         <v>0.70799280758884331</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f>D3/35.315</f>
         <v>0.70793008636556709</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
@@ -2937,7 +2951,7 @@
         <f>K6-K7</f>
         <v>2.3079999999993106E-3</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="29">
         <f>K8/300 *100</f>
         <v>7.6933333333310361E-4</v>
       </c>
@@ -3215,8 +3229,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3552,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3563,17 +3577,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <f>C3/35.315</f>
         <v>0.70799280758884331</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f>D3/35.315</f>
         <v>0.70791924111567328</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="30"/>
       <c r="J4" t="s">
         <v>75</v>
       </c>
@@ -3583,7 +3597,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3605,7 +3619,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3654,7 @@
         <f>K6-K7</f>
         <v>2.6280000000049597E-3</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="29">
         <f>K8/300*100</f>
         <v>8.7600000000165313E-4</v>
       </c>
@@ -3907,8 +3921,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4241,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -4257,17 +4271,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <f>C3/35.315</f>
         <v>0.59465128132521594</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f>D3/35.315</f>
         <v>0.59464881778281187</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
@@ -4279,7 +4293,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -4307,7 +4321,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -4534,8 +4548,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4809,7 +4823,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -4837,17 +4851,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <f>C3/35.315</f>
         <v>0.56633158714427301</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f>D3/35.315</f>
         <v>0.59464816650148666</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
@@ -4859,7 +4873,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4895,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -5105,8 +5119,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -5355,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5373,16 +5387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -5480,7 +5494,7 @@
         <f t="array" ref="S3:S10">MMULT(C3:J10, R3:R10)</f>
         <v>8.3334860000000006</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="29">
         <f>N3-S3</f>
         <v>7.6933333333251142E-4</v>
       </c>
@@ -5541,7 +5555,7 @@
       <c r="S4">
         <v>8.3333793333333332</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="29">
         <f t="shared" ref="V4:V10" si="0">N4-S4</f>
         <v>8.7599999999987688E-4</v>
       </c>
@@ -5935,6 +5949,571 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA86AA-3E67-4B13-ADA5-54D629D990C3}">
+  <dimension ref="B1:X19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1">
+        <v>12.499917</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>'Cell 0'!B51</f>
+        <v>0.12800160672162686</v>
+      </c>
+      <c r="D3">
+        <f>'Cell 0'!C51</f>
+        <v>-1.0000220806447549E-3</v>
+      </c>
+      <c r="E3" s="30">
+        <f>'Cell 0'!D51</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <f>'Cell 0'!E51</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <f>'Cell 0'!F51</f>
+        <v>-4.3666724640982098E-2</v>
+      </c>
+      <c r="H3" s="30">
+        <f>'Cell 0'!G51</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
+        <f>'Cell 0'!H51</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
+        <f>'Cell 0'!I51</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>'Cell 0'!M51+(G3*-1*100)</f>
+        <v>12.700927797431543</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3" cm="1">
+        <f t="array" ref="S3:S4">MMULT(C3:D4, R3:R4)</f>
+        <v>12.700158464098211</v>
+      </c>
+      <c r="V3" s="29">
+        <f>N3-S3</f>
+        <v>7.6933333333251142E-4</v>
+      </c>
+      <c r="W3" s="26">
+        <f>N3/S3 - 1</f>
+        <v>6.05766719767864E-5</v>
+      </c>
+      <c r="X3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>'Cell 1'!B51</f>
+        <v>-4.2666392080644759E-2</v>
+      </c>
+      <c r="D4">
+        <f>'Cell 1'!C51</f>
+        <v>0.12800020077424229</v>
+      </c>
+      <c r="E4" s="30">
+        <f>'Cell 1'!D51</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <f>'Cell 1'!E51</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <f>'Cell 1'!F51</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <f>'Cell 1'!G51</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <f>'Cell 1'!H51</f>
+        <v>-2.0000153602641965E-3</v>
+      </c>
+      <c r="J4" s="30">
+        <f>'Cell 1'!I51</f>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f>'Cell 1'!M51+(I4*-1*100)</f>
+        <v>8.5342568693597531</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>8.5333808693597533</v>
+      </c>
+      <c r="V4" s="29">
+        <f t="shared" ref="V4:V10" si="0">N4-S4</f>
+        <v>8.7599999999987688E-4</v>
+      </c>
+      <c r="W4" s="26">
+        <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
+        <v>1.0265567814338183E-4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <v>0</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="V5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="33"/>
+    </row>
+    <row r="6" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="V6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30" cm="1">
+        <f t="array" ref="C7:J7">'Cell 4'!B51:I51</f>
+        <v>-2.0000446409821015E-3</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.11366680130764877</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30">
+        <f>(12.499917+21.00011)/300*100</f>
+        <v>11.166675666666666</v>
+      </c>
+      <c r="R7" s="30">
+        <v>100</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="V7" s="30">
+        <f t="shared" si="0"/>
+        <v>11.166675666666666</v>
+      </c>
+      <c r="W7" s="33" t="e">
+        <f t="shared" ref="W7:W12" si="2">N7/S7 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
+        <v>0</v>
+      </c>
+      <c r="S8" s="30"/>
+      <c r="V8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="33"/>
+    </row>
+    <row r="9" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="30" cm="1">
+        <f t="array" ref="C9:J9">'Cell 6'!B51:I51</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>-4.3666285360264193E-2</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.11033295202693087</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
+        <f>'Cell 6'!M51</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R9" s="30">
+        <v>100</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="V9" s="30">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W9" s="33" t="e">
+        <f t="shared" ref="W9:W14" si="3">N9/S9 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>1</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="V10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="33"/>
+    </row>
+    <row r="12" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12:E13">MMULT(MINVERSE(C3:D4), N3:N4)</f>
+        <v>100.00607964086643</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>100.00887026999997</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13">
+        <f>N7</f>
+        <v>11.166675666666666</v>
+      </c>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="M14" s="25"/>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14">
+        <f>'Cell 6'!M6</f>
+        <v>3.8332936666666664E-2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B87C51-26FD-476D-A4AB-4D8217DA3413}">
   <dimension ref="B1:N18"/>
   <sheetViews>
@@ -5948,16 +6527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -6144,16 +6723,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094487B4-28D2-4B35-9AEF-1A41EBED104F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA30BFA-DE21-4722-BC6D-CAE1C2B625A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB276A5F-D507-44A9-A178-DCE0C3457A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="7" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -646,13 +646,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,7 +763,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,7 +805,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:colOff>101601</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>38271</xdr:rowOff>
     </xdr:to>
@@ -1481,16 +1481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1648,16 +1648,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1824,16 +1824,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1961,16 +1961,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2373,16 +2373,16 @@
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f>SUM(F47:F49)</f>
         <v>-4.3666724640982098E-2</v>
       </c>
       <c r="G51">
@@ -3552,7 +3552,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8"/>
       <c r="C4" s="30">
         <f>C3/35.315</f>
@@ -3597,7 +3597,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3619,7 +3619,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3921,8 +3921,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4213,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8"/>
       <c r="C4" s="30">
         <f>C3/35.315</f>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -4321,7 +4321,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -4548,8 +4548,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -4851,7 +4851,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8"/>
       <c r="C4" s="30">
         <f>C3/35.315</f>
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -5119,8 +5119,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
         <v>47</v>
       </c>
@@ -5387,16 +5387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -5952,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA86AA-3E67-4B13-ADA5-54D629D990C3}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5970,16 +5970,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
@@ -6143,7 +6143,7 @@
         <v>8.7599999999987688E-4</v>
       </c>
       <c r="W4" s="26">
-        <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
+        <f t="shared" ref="W4" si="1">N4/S4 - 1</f>
         <v>1.0265567814338183E-4</v>
       </c>
       <c r="X4" t="s">
@@ -6193,7 +6193,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="33"/>
+      <c r="W5" s="31"/>
     </row>
     <row r="6" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
@@ -6238,7 +6238,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="33"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
@@ -6285,8 +6285,8 @@
         <f t="shared" si="0"/>
         <v>11.166675666666666</v>
       </c>
-      <c r="W7" s="33" t="e">
-        <f t="shared" ref="W7:W12" si="2">N7/S7 - 1</f>
+      <c r="W7" s="31" t="e">
+        <f t="shared" ref="W7" si="2">N7/S7 - 1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="33"/>
+      <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
@@ -6380,8 +6380,8 @@
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="W9" s="33" t="e">
-        <f t="shared" ref="W9:W14" si="3">N9/S9 - 1</f>
+      <c r="W9" s="31" t="e">
+        <f t="shared" ref="W9" si="3">N9/S9 - 1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="33"/>
+      <c r="W10" s="31"/>
     </row>
     <row r="12" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
@@ -6517,7 +6517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B87C51-26FD-476D-A4AB-4D8217DA3413}">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -6527,16 +6527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">

--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components_redo.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB276A5F-D507-44A9-A178-DCE0C3457A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BA8AA-B6DD-48D8-ADC3-EDDC0FF24DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="-14310" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
     <sheet name="Constants" sheetId="18" r:id="rId2"/>
     <sheet name="Cell 0" sheetId="5" r:id="rId3"/>
     <sheet name="Cell 1" sheetId="14" r:id="rId4"/>
-    <sheet name="Cell 4" sheetId="16" r:id="rId5"/>
-    <sheet name="Cell 6" sheetId="17" r:id="rId6"/>
-    <sheet name="Matrix" sheetId="2" r:id="rId7"/>
-    <sheet name="Matrix-Real-Only" sheetId="19" r:id="rId8"/>
-    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
-    <sheet name="Delta T" sheetId="1" r:id="rId11"/>
-    <sheet name="Face Area" sheetId="4" r:id="rId12"/>
-    <sheet name="Distance Between Cells" sheetId="8" r:id="rId13"/>
-    <sheet name="Flow Across Face" sheetId="10" r:id="rId14"/>
-    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId15"/>
-    <sheet name="Total" sheetId="6" r:id="rId16"/>
+    <sheet name="Matrix-Real-Only" sheetId="19" r:id="rId5"/>
+    <sheet name="Matrix-Clearwater" sheetId="21" r:id="rId6"/>
+    <sheet name="Cell 4" sheetId="16" r:id="rId7"/>
+    <sheet name="Cell 6" sheetId="17" r:id="rId8"/>
+    <sheet name="Matrix" sheetId="2" r:id="rId9"/>
+    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId12"/>
+    <sheet name="Delta T" sheetId="1" r:id="rId13"/>
+    <sheet name="Face Area" sheetId="4" r:id="rId14"/>
+    <sheet name="Distance Between Cells" sheetId="8" r:id="rId15"/>
+    <sheet name="Flow Across Face" sheetId="10" r:id="rId16"/>
+    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId17"/>
+    <sheet name="Total" sheetId="6" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="94">
   <si>
     <t>n+1</t>
   </si>
@@ -365,7 +367,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +437,18 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -602,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,6 +667,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,15 +1449,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="110.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="110.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="110.5" customHeight="1" thickBot="1">
       <c r="C1" s="12"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="110.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="110.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="11"/>
       <c r="C2" s="13">
         <v>4</v>
@@ -1448,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="110.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" ht="110.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1456,18 +1480,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B87C51-26FD-476D-A4AB-4D8217DA3413}">
+  <dimension ref="B1:N18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="45.5" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>'Cell 0'!B52</f>
+        <v>0.12800160672162686</v>
+      </c>
+      <c r="D3">
+        <f>'Cell 0'!C52</f>
+        <v>-1.0000220806447549E-3</v>
+      </c>
+      <c r="E3">
+        <f>'Cell 0'!D52</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>'Cell 0'!E52</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>'Cell 0'!F52</f>
+        <v>-4.3666724640982098E-2</v>
+      </c>
+      <c r="H3">
+        <f>'Cell 0'!G52</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>'Cell 0'!H52</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>'Cell 0'!I52</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>'Cell 0'!M51</f>
+        <v>8.3342553333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="45.5" customHeight="1">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="45.5" customHeight="1">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="e" cm="1">
+        <f t="array" ref="E12">MMULT(MINVERSE(C3:J9), N3:N9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="45.5" customHeight="1">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="45.5" customHeight="1">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="45.5" customHeight="1">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="45.5" customHeight="1">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="45.5" customHeight="1">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="45.5" customHeight="1">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DA04B-CDEC-4B7F-96B1-7BA98959ECBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094487B4-28D2-4B35-9AEF-1A41EBED104F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8500680-5B59-40AC-AB01-A466D4D431DD}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1475,12 +1723,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -1531,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1548,7 +1796,7 @@
         <v>8.3342552185058594</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1565,7 +1813,7 @@
         <v>8.3342552185058594</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1576,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1587,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1601,7 +1849,7 @@
         <v>11.166705156366</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1612,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1637,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995DFA7-E61E-4ADC-BFF8-E39AADF9E9D6}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1645,9 +1893,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -1698,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1718,7 +1966,7 @@
         <v>8.3342552185058594</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1738,7 +1986,7 @@
         <v>8.3342552185058594</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1749,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1760,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1777,7 +2025,7 @@
         <v>11.166705156366</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1788,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1813,7 +2061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEBBD86-2495-4984-B5F3-6D4DD628368B}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1821,9 +2069,9 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -1874,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1882,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1890,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1898,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1906,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1914,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1922,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1938,19 +2186,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FED8B94-C086-4105-BBEE-59F985EE19AB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCAC273-7DB2-44F4-A0A4-6FE5EDD8BB88}">
   <dimension ref="B1:W18"/>
   <sheetViews>
@@ -1958,9 +2206,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -2011,7 +2259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2050,7 +2298,7 @@
         <v>8.3342552185058594</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2101,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2140,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2179,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2218,7 +2466,7 @@
         <v>11.166705156366</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2257,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -2296,7 +2544,7 @@
         <v>6.6666666666666599</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="45.5" customHeight="1">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2553,7 @@
         <v>86.38556536335129</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" ht="45.5" customHeight="1">
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2561,7 @@
         <v>93.193117041125248</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" ht="45.5" customHeight="1">
       <c r="D14" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" ht="45.5" customHeight="1">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" ht="45.5" customHeight="1">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2585,7 @@
         <v>73.000874177074095</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" ht="45.5" customHeight="1">
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -2345,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" ht="45.5" customHeight="1">
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -2362,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CA6E72-7372-4C3B-AD40-0CE7B3853F9B}">
   <dimension ref="B1:U18"/>
   <sheetViews>
@@ -2370,9 +2618,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -2423,7 +2671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2462,7 +2710,7 @@
         <v>8.3342552185058505</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2513,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2552,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2591,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2630,7 +2878,7 @@
         <v>11.166705156366</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2669,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -2708,7 +2956,7 @@
         <v>6.6666666666666599</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="45.5" customHeight="1">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2965,7 @@
         <v>86.436906110567477</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="45.5" customHeight="1">
       <c r="D13" t="s">
         <v>3</v>
       </c>
@@ -2725,7 +2973,7 @@
         <v>91.830497482739418</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="45.5" customHeight="1">
       <c r="D14" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" ht="45.5" customHeight="1">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="45.5" customHeight="1">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2997,7 @@
         <v>80.563729180524291</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" ht="45.5" customHeight="1">
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" ht="45.5" customHeight="1">
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -2780,30 +3028,30 @@
   <dimension ref="B5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+    <row r="6" spans="2:8">
+      <c r="B6" s="38">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="H7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="H10" t="s">
         <v>72</v>
       </c>
@@ -2818,10 +3066,10 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -2835,12 +3083,12 @@
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" s="18" customFormat="1">
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -2851,7 +3099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2872,7 +3120,7 @@
         <v>25.002766000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2895,7 +3143,7 @@
         <v>12.499911000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16">
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +3164,7 @@
         <v>12.500003999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16">
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +3182,7 @@
         <v>25.002859000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16">
       <c r="J7" t="s">
         <v>77</v>
       </c>
@@ -2943,7 +3191,7 @@
         <v>25.000551000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16">
       <c r="J8" s="28" t="s">
         <v>78</v>
       </c>
@@ -2956,7 +3204,7 @@
         <v>7.6933333333310361E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" s="18" customFormat="1">
       <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
@@ -2964,7 +3212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16">
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2984,7 +3232,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +3270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>0</v>
       </c>
@@ -3063,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>0</v>
       </c>
@@ -3104,12 +3352,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16">
       <c r="P15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -3120,7 +3368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16">
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +3394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>0</v>
       </c>
@@ -3172,7 +3420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>0</v>
       </c>
@@ -3198,7 +3446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16">
       <c r="E21" t="s">
         <v>73</v>
       </c>
@@ -3206,29 +3454,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16">
       <c r="H22" s="3"/>
       <c r="P22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" hidden="1"/>
+    <row r="24" spans="2:16" hidden="1"/>
+    <row r="25" spans="2:16" hidden="1"/>
+    <row r="26" spans="2:16" hidden="1"/>
+    <row r="27" spans="2:16" hidden="1"/>
+    <row r="28" spans="2:16" hidden="1"/>
+    <row r="29" spans="2:16" hidden="1"/>
+    <row r="30" spans="2:16" hidden="1"/>
+    <row r="31" spans="2:16" hidden="1"/>
+    <row r="32" spans="2:16" hidden="1"/>
+    <row r="33" spans="1:16" hidden="1"/>
+    <row r="35" spans="1:16">
       <c r="H35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
@@ -3243,7 +3491,7 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="B37" s="8">
         <f>D3/D5</f>
         <v>8.333517E-2</v>
@@ -3292,17 +3540,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="K39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="H40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
         <v>2.0000446409821015E-3</v>
@@ -3334,12 +3582,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="B46">
         <v>0</v>
       </c>
@@ -3368,7 +3616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3384,7 +3632,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3403,7 +3651,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3425,7 +3673,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -3466,7 +3714,7 @@
         <v>8.3342553333333331</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3520,11 +3768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -3535,12 +3783,12 @@
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="18" customFormat="1">
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>13</v>
@@ -3576,7 +3824,7 @@
         <v>25.002766000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" s="32"/>
       <c r="B4" s="8"/>
       <c r="C4" s="30">
@@ -3596,7 +3844,7 @@
         <v>12.499881</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -3618,7 +3866,7 @@
         <v>12.499911000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
@@ -3637,7 +3885,7 @@
         <v>25.002796000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="J7" t="s">
         <v>77</v>
       </c>
@@ -3646,7 +3894,7 @@
         <v>25.000167999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="J8" s="28" t="s">
         <v>78</v>
       </c>
@@ -3659,7 +3907,7 @@
         <v>8.7600000000165313E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="18" customFormat="1">
       <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
@@ -3667,7 +3915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="20" customFormat="1">
       <c r="B11" s="21"/>
       <c r="E11" s="22" t="s">
         <v>32</v>
@@ -3679,7 +3927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -3717,7 +3965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>0</v>
       </c>
@@ -3758,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>1</v>
       </c>
@@ -3799,12 +4047,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="P15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -3815,7 +4063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16">
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +4089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>0</v>
       </c>
@@ -3867,7 +4115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>1</v>
       </c>
@@ -3893,34 +4141,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16">
       <c r="P21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16">
       <c r="H22" s="3"/>
       <c r="P22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" hidden="1"/>
+    <row r="24" spans="2:16" hidden="1"/>
+    <row r="25" spans="2:16" hidden="1"/>
+    <row r="26" spans="2:16" hidden="1"/>
+    <row r="27" spans="2:16" hidden="1"/>
+    <row r="28" spans="2:16" hidden="1"/>
+    <row r="29" spans="2:16" hidden="1"/>
+    <row r="30" spans="2:16" hidden="1"/>
+    <row r="31" spans="2:16" hidden="1"/>
+    <row r="32" spans="2:16" hidden="1"/>
+    <row r="33" spans="1:16" hidden="1"/>
+    <row r="35" spans="1:16">
       <c r="H35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="H36" s="6" t="s">
@@ -3935,7 +4183,7 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="B37" s="8">
         <f>D3/D5</f>
         <v>8.3333893333333325E-2</v>
@@ -3984,17 +4232,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="K39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="H40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="H41" s="6">
         <f>G14*H14/M14</f>
         <v>2.0000153602641965E-3</v>
@@ -4026,12 +4274,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="B46">
         <v>0</v>
       </c>
@@ -4060,7 +4308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4076,7 +4324,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4095,7 +4343,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4117,7 +4365,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4158,7 +4406,7 @@
         <v>8.3342553333333331</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -4210,1170 +4458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
-  <dimension ref="A1:Q52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA86AA-3E67-4B13-ADA5-54D629D990C3}">
+  <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>21.000109999999999</v>
-      </c>
-      <c r="D3">
-        <v>21.000022999999999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="27">
-        <f>C3-D3</f>
-        <v>8.7000000000614364E-5</v>
-      </c>
-      <c r="G3" s="27">
-        <f>12.500004-F3</f>
-        <v>12.499917</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3">
-        <f>E19*D5*-1</f>
-        <v>12.500003999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="30">
-        <f>C3/35.315</f>
-        <v>0.59465128132521594</v>
-      </c>
-      <c r="D4" s="30">
-        <f>D3/35.315</f>
-        <v>0.59464881778281187</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <f>D3-C3</f>
-        <v>-8.7000000000614364E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5">
-        <f>M4+M3</f>
-        <v>12.499916999999998</v>
-      </c>
-      <c r="O5">
-        <v>12.499916999999998</v>
-      </c>
-      <c r="Q5">
-        <v>12.499916999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <f>M5/300</f>
-        <v>4.1666389999999991E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>-4.1666679999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>-8.3331499999999992E-3</v>
-      </c>
-      <c r="G13">
-        <f>E13/F13</f>
-        <v>5.0001116024552541</v>
-      </c>
-      <c r="H13">
-        <f>Constants!B6</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>500002.5</v>
-      </c>
-      <c r="J13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="K13" s="5">
-        <v>500000</v>
-      </c>
-      <c r="L13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="M13">
-        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="P14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>-4.1666679999999998E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="P19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="H22" s="3"/>
-      <c r="P22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="H36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="N36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
-        <f>D3/D5</f>
-        <v>7.0000076666666661E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9">
-        <f>C3/C5*C6</f>
-        <v>7.0000366666666665</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="6">
-        <f>G13*H13/M13</f>
-        <v>2.0000446409821015E-3</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="6">
-        <f>G13*H13/M13</f>
-        <v>2.0000446409821015E-3</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="7">
-        <f>E19*G19</f>
-        <v>4.1666679999999998E-2</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8">
-        <f>B37</f>
-        <v>7.0000076666666661E-2</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
-        <f>N37</f>
-        <v>4.1666679999999998E-2</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6">
-        <f>-H37</f>
-        <v>-2.0000446409821015E-3</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
-        <f>K37</f>
-        <v>2.0000446409821015E-3</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B47:B49)</f>
-        <v>-2.0000446409821015E-3</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0.11366680130764877</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="10">
-        <f>E37</f>
-        <v>7.0000366666666665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52">
-        <f>B47+B48</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0.11166675666666666</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>E37</f>
-        <v>7.0000366666666665</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B36:C36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
-  <dimension ref="A1:P52"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3">
-        <f>E19*C5</f>
-        <v>12.499881</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="30">
-        <f>C3/35.315</f>
-        <v>0.56633158714427301</v>
-      </c>
-      <c r="D4" s="30">
-        <f>D3/35.315</f>
-        <v>0.59464816650148666</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <f>D3-C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5">
-        <f>M3-M4</f>
-        <v>11.499881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <f>M5/300</f>
-        <v>3.8332936666666664E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>4.1666269999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>8.3331900000000007E-3</v>
-      </c>
-      <c r="G13">
-        <f>E13/F13</f>
-        <v>5.0000384006604905</v>
-      </c>
-      <c r="H13">
-        <f>Constants!B6</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>500007.5</v>
-      </c>
-      <c r="J13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="K13" s="5">
-        <v>500010</v>
-      </c>
-      <c r="L13" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="M13">
-        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>4.1666269999999998E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="P21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="H22" s="3"/>
-      <c r="P22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="H36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="N36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
-        <f>D3/D5</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9">
-        <f>C3/C5*C6</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="6">
-        <f>G13*H13/M13</f>
-        <v>2.0000153602641965E-3</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="6">
-        <f>G13*H13/M13</f>
-        <v>2.0000153602641965E-3</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="7">
-        <f>E19*G19</f>
-        <v>-4.1666269999999998E-2</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8">
-        <f>B37</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7">
-        <f>N37</f>
-        <v>-4.1666269999999998E-2</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
-        <f>M6</f>
-        <v>3.8332936666666664E-2</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <f>-H37</f>
-        <v>-2.0000153602641965E-3</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <f>K37</f>
-        <v>2.0000153602641965E-3</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B47:B49)</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
-        <v>-4.3666285360264193E-2</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0.11033295202693087</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="10">
-        <f>E37</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52">
-        <f>B47+B48</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
-        <v>-4.1666269999999998E-2</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>0.10833293666666667</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>E37</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B36:C36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
-  <dimension ref="B1:X19"/>
-  <sheetViews>
-    <sheetView zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
@@ -5386,7 +4478,7 @@
     <col min="26" max="26" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -5412,7 +4504,7 @@
         <v>12.499917</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -5444,7 +4536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -5456,27 +4548,27 @@
         <f>'Cell 0'!C51</f>
         <v>-1.0000220806447549E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="30">
         <f>'Cell 0'!D51</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="30">
         <f>'Cell 0'!E51</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="30">
         <f>'Cell 0'!F51</f>
         <v>-4.3666724640982098E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="30">
         <f>'Cell 0'!G51</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="30">
         <f>'Cell 0'!H51</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="30">
         <f>'Cell 0'!I51</f>
         <v>0</v>
       </c>
@@ -5484,15 +4576,15 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f>'Cell 0'!M51</f>
-        <v>8.3342553333333331</v>
+        <f>'Cell 0'!M51+(G3*-1*100)</f>
+        <v>12.700927797431543</v>
       </c>
       <c r="R3">
         <v>100</v>
       </c>
       <c r="S3" cm="1">
-        <f t="array" ref="S3:S10">MMULT(C3:J10, R3:R10)</f>
-        <v>8.3334860000000006</v>
+        <f t="array" ref="S3:S4">MMULT(C3:D4, R3:R4)</f>
+        <v>12.700158464098211</v>
       </c>
       <c r="V3" s="29">
         <f>N3-S3</f>
@@ -5500,13 +4592,13 @@
       </c>
       <c r="W3" s="26">
         <f>N3/S3 - 1</f>
-        <v>9.2318308728467358E-5</v>
+        <v>6.05766719767864E-5</v>
       </c>
       <c r="X3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -5518,27 +4610,27 @@
         <f>'Cell 1'!C51</f>
         <v>0.12800020077424229</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="30">
         <f>'Cell 1'!D51</f>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="30">
         <f>'Cell 1'!E51</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="30">
         <f>'Cell 1'!F51</f>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="30">
         <f>'Cell 1'!G51</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="30">
         <f>'Cell 1'!H51</f>
         <v>-2.0000153602641965E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="30">
         <f>'Cell 1'!I51</f>
         <v>0</v>
       </c>
@@ -5546,328 +4638,322 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <f>'Cell 1'!M51</f>
-        <v>8.3342553333333331</v>
+        <f>'Cell 1'!M51+(I4*-1*100)</f>
+        <v>8.5342568693597531</v>
       </c>
       <c r="R4">
         <v>100</v>
       </c>
       <c r="S4">
-        <v>8.3333793333333332</v>
+        <v>8.5333808693597533</v>
       </c>
       <c r="V4" s="29">
         <f t="shared" ref="V4:V10" si="0">N4-S4</f>
         <v>8.7599999999987688E-4</v>
       </c>
       <c r="W4" s="26">
-        <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
-        <v>1.0511941974078454E-4</v>
+        <f t="shared" ref="W4" si="1">N4/S4 - 1</f>
+        <v>1.0265567814338183E-4</v>
       </c>
       <c r="X4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="M5" s="30"/>
+      <c r="N5" s="30">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <v>0</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="V5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="26"/>
-    </row>
-    <row r="6" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="2:24" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="V6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="26"/>
-    </row>
-    <row r="7" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="2:24" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" cm="1">
+      <c r="C7" s="30" cm="1">
         <f t="array" ref="C7:J7">'Cell 4'!B51:I51</f>
         <v>-2.0000446409821015E-3</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
         <v>0.11366680130764877</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="4">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30">
         <f>(12.499917+21.00011)/300*100</f>
         <v>11.166675666666666</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="30">
         <v>100</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="30"/>
+      <c r="V7" s="30">
+        <f t="shared" si="0"/>
         <v>11.166675666666666</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W7" s="31" t="e">
+        <f t="shared" ref="W7" si="2">N7/S7 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="M8" s="30"/>
+      <c r="N8" s="30">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
+        <v>0</v>
+      </c>
+      <c r="S8" s="30"/>
+      <c r="V8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="26"/>
-    </row>
-    <row r="9" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" spans="2:24" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" cm="1">
+      <c r="C9" s="30" cm="1">
         <f t="array" ref="C9:J9">'Cell 6'!B51:I51</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="30">
         <v>-4.3666285360264193E-2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
         <v>0.11033295202693087</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <f>'Cell 6'!M51</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="30">
         <v>100</v>
       </c>
-      <c r="S9">
-        <v>6.6666666666666687</v>
-      </c>
-      <c r="V9">
+      <c r="S9" s="30"/>
+      <c r="V9" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W9" s="31" t="e">
+        <f t="shared" ref="W9" si="3">N9/S9 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="45.5" customHeight="1">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="V10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="26"/>
-    </row>
-    <row r="12" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="31"/>
+    </row>
+    <row r="12" spans="2:24" ht="45.5" customHeight="1">
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" cm="1">
-        <f t="array" ref="E12:E19">MMULT(MINVERSE(C3:J10), N3:N10)</f>
-        <v>100.00611688705736</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="array" ref="E12:E13">MMULT(MINVERSE(C3:D4), N3:N4)</f>
+        <v>100.00607964086643</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="45.5" customHeight="1">
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>100.00893795688603</v>
+        <v>100.00887026999997</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
@@ -5881,13 +4967,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+    <row r="14" spans="2:24" ht="45.5" customHeight="1">
+      <c r="D14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
+      <c r="E14" s="30"/>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
         <v>81</v>
@@ -5900,45 +4984,35 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+    <row r="15" spans="2:24" ht="45.5" customHeight="1">
+      <c r="D15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:24" ht="45.5" customHeight="1">
+      <c r="D16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>100.00010763078615</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E18">
-        <v>100.00353736004297</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
+      <c r="E19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5948,15 +5022,1523 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE008C5-B4B0-4EC2-BCC8-97027E8B6416}">
+  <dimension ref="B1:W19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+    </row>
+    <row r="2" spans="2:23" ht="45.5" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.128001602552831</v>
+      </c>
+      <c r="D3" s="36">
+        <v>-1.00002251565456E-3</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36">
+        <v>12.700928019999999</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3" s="35" cm="1">
+        <f t="array" ref="L3:L4">MMULT(C3:D4,K3:K4)</f>
+        <v>12.700158003717643</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35">
+        <f>H3-L3</f>
+        <v>7.7001628235606745E-4</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
+        <v>-4.2666388675570398E-2</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.12800019700080101</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36">
+        <v>8.5342566499999997</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="35">
+        <v>8.5333808325230613</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35">
+        <f>H4-L4</f>
+        <v>8.7581747693832313E-4</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="39" cm="1">
+        <f t="array" ref="C6:C7">MMULT(MINVERSE(C3:D4), H3:H4)</f>
+        <v>100.00608497932966</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="39">
+        <v>100.00887062361392</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35">
+        <f>C3-'Matrix-Real-Only'!C3</f>
+        <v>-4.1687958640679312E-9</v>
+      </c>
+      <c r="D9" s="35">
+        <f>D3-'Matrix-Real-Only'!D3</f>
+        <v>-4.3500980508731635E-10</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
+        <f>'Matrix-Real-Only'!C3-'Matrix-Clearwater'!C3</f>
+        <v>4.1687958640679312E-9</v>
+      </c>
+      <c r="G9" s="35">
+        <f>'Matrix-Real-Only'!D3-'Matrix-Clearwater'!D3</f>
+        <v>4.3500980508731635E-10</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+    </row>
+    <row r="10" spans="2:23" ht="45.5" customHeight="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35">
+        <f>C4-'Matrix-Real-Only'!C4</f>
+        <v>3.4050743613622814E-9</v>
+      </c>
+      <c r="D10" s="35">
+        <f>D4-'Matrix-Real-Only'!D4</f>
+        <v>-3.7734412816625706E-9</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35">
+        <f>'Matrix-Real-Only'!C4-'Matrix-Clearwater'!C4</f>
+        <v>-3.4050743613622814E-9</v>
+      </c>
+      <c r="G10" s="35">
+        <f>'Matrix-Real-Only'!D4-'Matrix-Clearwater'!D4</f>
+        <v>3.7734412816625706E-9</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="13" spans="2:23" ht="45.5" customHeight="1">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:23" ht="45.5" customHeight="1">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="2:23" ht="45.5" customHeight="1">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:23" ht="45.5" customHeight="1">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="18" customFormat="1">
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="32"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>21.000109999999999</v>
+      </c>
+      <c r="D3">
+        <v>21.000022999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="27">
+        <f>C3-D3</f>
+        <v>8.7000000000614364E-5</v>
+      </c>
+      <c r="G3" s="27">
+        <f>12.500004-F3</f>
+        <v>12.499917</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <f>E19*D5*-1</f>
+        <v>12.500003999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="30">
+        <f>C3/35.315</f>
+        <v>0.59465128132521594</v>
+      </c>
+      <c r="D4" s="30">
+        <f>D3/35.315</f>
+        <v>0.59464881778281187</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4">
+        <f>D3-C3</f>
+        <v>-8.7000000000614364E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5">
+        <f>M4+M3</f>
+        <v>12.499916999999998</v>
+      </c>
+      <c r="O5">
+        <v>12.499916999999998</v>
+      </c>
+      <c r="Q5">
+        <v>12.499916999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <f>M5/300</f>
+        <v>4.1666389999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="18" customFormat="1">
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="20" customFormat="1">
+      <c r="B11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-4.1666679999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>-8.3331499999999992E-3</v>
+      </c>
+      <c r="G13">
+        <f>E13/F13</f>
+        <v>5.0001116024552541</v>
+      </c>
+      <c r="H13">
+        <f>Constants!B6</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>500002.5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>500000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="M13">
+        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="P15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>-4.1666679999999998E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="P20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="H22" s="3"/>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" hidden="1"/>
+    <row r="24" spans="2:16" hidden="1"/>
+    <row r="25" spans="2:16" hidden="1"/>
+    <row r="26" spans="2:16" hidden="1"/>
+    <row r="27" spans="2:16" hidden="1"/>
+    <row r="28" spans="2:16" hidden="1"/>
+    <row r="29" spans="2:16" hidden="1"/>
+    <row r="30" spans="2:16" hidden="1"/>
+    <row r="31" spans="2:16" hidden="1"/>
+    <row r="32" spans="2:16" hidden="1"/>
+    <row r="33" spans="1:16" hidden="1"/>
+    <row r="35" spans="1:16">
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="N36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="B37" s="8">
+        <f>D3/D5</f>
+        <v>7.0000076666666661E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9">
+        <f>C3/C5*C6</f>
+        <v>7.0000366666666665</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6">
+        <f>G13*H13/M13</f>
+        <v>2.0000446409821015E-3</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="6">
+        <f>G13*H13/M13</f>
+        <v>2.0000446409821015E-3</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="7">
+        <f>E19*G19</f>
+        <v>4.1666679999999998E-2</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
+        <f>B37</f>
+        <v>7.0000076666666661E-2</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <f>N37</f>
+        <v>4.1666679999999998E-2</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6">
+        <f>-H37</f>
+        <v>-2.0000446409821015E-3</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <f>K37</f>
+        <v>2.0000446409821015E-3</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <f>SUM(B47:B49)</f>
+        <v>-2.0000446409821015E-3</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.11366680130764877</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <f>E37</f>
+        <v>7.0000366666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <f>B47+B48</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.11166675666666666</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>E37</f>
+        <v>7.0000366666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA86AA-3E67-4B13-ADA5-54D629D990C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="18" customFormat="1">
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="32"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <f>E19*C5</f>
+        <v>12.499881</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="30">
+        <f>C3/35.315</f>
+        <v>0.56633158714427301</v>
+      </c>
+      <c r="D4" s="30">
+        <f>D3/35.315</f>
+        <v>0.59464816650148666</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4">
+        <f>D3-C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5">
+        <f>M3-M4</f>
+        <v>11.499881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <f>M5/300</f>
+        <v>3.8332936666666664E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="18" customFormat="1">
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1">
+      <c r="B11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4.1666269999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>8.3331900000000007E-3</v>
+      </c>
+      <c r="G13">
+        <f>E13/F13</f>
+        <v>5.0000384006604905</v>
+      </c>
+      <c r="H13">
+        <f>Constants!B6</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>500007.5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>500010</v>
+      </c>
+      <c r="L13" s="5">
+        <v>102.5</v>
+      </c>
+      <c r="M13">
+        <f>SQRT((K13-I13)^2-(L13-J13)^2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="P15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4.1666269999999998E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="P20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="H22" s="3"/>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" hidden="1"/>
+    <row r="24" spans="2:16" hidden="1"/>
+    <row r="25" spans="2:16" hidden="1"/>
+    <row r="26" spans="2:16" hidden="1"/>
+    <row r="27" spans="2:16" hidden="1"/>
+    <row r="28" spans="2:16" hidden="1"/>
+    <row r="29" spans="2:16" hidden="1"/>
+    <row r="30" spans="2:16" hidden="1"/>
+    <row r="31" spans="2:16" hidden="1"/>
+    <row r="32" spans="2:16" hidden="1"/>
+    <row r="33" spans="1:16" hidden="1"/>
+    <row r="35" spans="1:16">
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="N36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="B37" s="8">
+        <f>D3/D5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9">
+        <f>C3/C5*C6</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6">
+        <f>G13*H13/M13</f>
+        <v>2.0000153602641965E-3</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="6">
+        <f>G13*H13/M13</f>
+        <v>2.0000153602641965E-3</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="7">
+        <f>E19*G19</f>
+        <v>-4.1666269999999998E-2</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
+        <f>B37</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7">
+        <f>N37</f>
+        <v>-4.1666269999999998E-2</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
+        <f>M6</f>
+        <v>3.8332936666666664E-2</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <f>-H37</f>
+        <v>-2.0000153602641965E-3</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <f>K37</f>
+        <v>2.0000153602641965E-3</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <f>SUM(B47:B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="0">SUM(C47:C49)</f>
+        <v>-4.3666285360264193E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.11033295202693087</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <f>E37</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <f>B47+B48</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="1">C47+C48</f>
+        <v>-4.1666269999999998E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0.10833293666666667</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>E37</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
@@ -5969,7 +6551,7 @@
     <col min="26" max="26" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="45.5" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
@@ -5995,7 +6577,7 @@
         <v>12.499917</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="45.5" customHeight="1">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -6027,7 +6609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="45.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -6039,27 +6621,27 @@
         <f>'Cell 0'!C51</f>
         <v>-1.0000220806447549E-3</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3">
         <f>'Cell 0'!D51</f>
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3">
         <f>'Cell 0'!E51</f>
         <v>0</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3">
         <f>'Cell 0'!F51</f>
         <v>-4.3666724640982098E-2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3">
         <f>'Cell 0'!G51</f>
         <v>0</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3">
         <f>'Cell 0'!H51</f>
         <v>0</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3">
         <f>'Cell 0'!I51</f>
         <v>0</v>
       </c>
@@ -6067,15 +6649,15 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f>'Cell 0'!M51+(G3*-1*100)</f>
-        <v>12.700927797431543</v>
+        <f>'Cell 0'!M51</f>
+        <v>8.3342553333333331</v>
       </c>
       <c r="R3">
         <v>100</v>
       </c>
       <c r="S3" cm="1">
-        <f t="array" ref="S3:S4">MMULT(C3:D4, R3:R4)</f>
-        <v>12.700158464098211</v>
+        <f t="array" ref="S3:S10">MMULT(C3:J10, R3:R10)</f>
+        <v>8.3334860000000006</v>
       </c>
       <c r="V3" s="29">
         <f>N3-S3</f>
@@ -6083,13 +6665,13 @@
       </c>
       <c r="W3" s="26">
         <f>N3/S3 - 1</f>
-        <v>6.05766719767864E-5</v>
+        <v>9.2318308728467358E-5</v>
       </c>
       <c r="X3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="45.5" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -6101,27 +6683,27 @@
         <f>'Cell 1'!C51</f>
         <v>0.12800020077424229</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4">
         <f>'Cell 1'!D51</f>
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4">
         <f>'Cell 1'!E51</f>
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4">
         <f>'Cell 1'!F51</f>
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4">
         <f>'Cell 1'!G51</f>
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4">
         <f>'Cell 1'!H51</f>
         <v>-2.0000153602641965E-3</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4">
         <f>'Cell 1'!I51</f>
         <v>0</v>
       </c>
@@ -6129,322 +6711,328 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <f>'Cell 1'!M51+(I4*-1*100)</f>
-        <v>8.5342568693597531</v>
+        <f>'Cell 1'!M51</f>
+        <v>8.3342553333333331</v>
       </c>
       <c r="R4">
         <v>100</v>
       </c>
       <c r="S4">
-        <v>8.5333808693597533</v>
+        <v>8.3333793333333332</v>
       </c>
       <c r="V4" s="29">
         <f t="shared" ref="V4:V10" si="0">N4-S4</f>
         <v>8.7599999999987688E-4</v>
       </c>
       <c r="W4" s="26">
-        <f t="shared" ref="W4" si="1">N4/S4 - 1</f>
-        <v>1.0265567814338183E-4</v>
+        <f t="shared" ref="W4:W9" si="1">N4/S4 - 1</f>
+        <v>1.0511941974078454E-4</v>
       </c>
       <c r="X4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="45.5" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30">
-        <v>0</v>
-      </c>
-      <c r="R5" s="30">
-        <v>0</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="V5" s="30">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="31"/>
-    </row>
-    <row r="6" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="2:24" ht="45.5" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30"/>
-      <c r="V6" s="30">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="31"/>
-    </row>
-    <row r="7" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="2:24" ht="45.5" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="30" cm="1">
+      <c r="C7" cm="1">
         <f t="array" ref="C7:J7">'Cell 4'!B51:I51</f>
         <v>-2.0000446409821015E-3</v>
       </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.11366680130764877</v>
       </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30">
+      <c r="N7" s="4">
         <f>(12.499917+21.00011)/300*100</f>
         <v>11.166675666666666</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7">
         <v>100</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="V7" s="30">
+      <c r="S7">
+        <v>11.166675666666666</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="0"/>
-        <v>11.166675666666666</v>
-      </c>
-      <c r="W7" s="31" t="e">
-        <f t="shared" ref="W7" si="2">N7/S7 - 1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="45.5" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30"/>
-      <c r="V8" s="30">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="31"/>
-    </row>
-    <row r="9" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="2:24" ht="45.5" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="30" cm="1">
+      <c r="C9" cm="1">
         <f t="array" ref="C9:J9">'Cell 6'!B51:I51</f>
         <v>0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9">
         <v>-4.3666285360264193E-2</v>
       </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
         <v>0.11033295202693087</v>
       </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="30" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="N9">
         <f>'Cell 6'!M51</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9">
         <v>100</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9">
+        <v>6.6666666666666687</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="W9" s="31" t="e">
-        <f t="shared" ref="W9" si="3">N9/S9 - 1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="45.5" customHeight="1">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30"/>
-      <c r="V10" s="30">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="31"/>
-    </row>
-    <row r="12" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="26"/>
+    </row>
+    <row r="12" spans="2:24" ht="45.5" customHeight="1">
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" cm="1">
-        <f t="array" ref="E12:E13">MMULT(MINVERSE(C3:D4), N3:N4)</f>
-        <v>100.00607964086643</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="array" ref="E12:E19">MMULT(MINVERSE(C3:J10), N3:N10)</f>
+        <v>100.00611688705736</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="45.5" customHeight="1">
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>100.00887026999997</v>
+        <v>100.00893795688603</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
@@ -6458,11 +7046,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="30" t="s">
+    <row r="14" spans="2:24" ht="45.5" customHeight="1">
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
         <v>81</v>
@@ -6475,246 +7065,44 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="2:24" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B87C51-26FD-476D-A4AB-4D8217DA3413}">
-  <dimension ref="B1:N18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>'Cell 0'!B52</f>
-        <v>0.12800160672162686</v>
-      </c>
-      <c r="D3">
-        <f>'Cell 0'!C52</f>
-        <v>-1.0000220806447549E-3</v>
-      </c>
-      <c r="E3">
-        <f>'Cell 0'!D52</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>'Cell 0'!E52</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>'Cell 0'!F52</f>
-        <v>-4.3666724640982098E-2</v>
-      </c>
-      <c r="H3">
-        <f>'Cell 0'!G52</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>'Cell 0'!H52</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>'Cell 0'!I52</f>
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <f>'Cell 0'!M51</f>
-        <v>8.3342553333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="e" cm="1">
-        <f t="array" ref="E12">MMULT(MINVERSE(C3:J9), N3:N9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="45.5" customHeight="1">
       <c r="D15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="45.5" customHeight="1">
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>100.00010763078615</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="45.5" customHeight="1">
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="45.5" customHeight="1">
       <c r="D18" t="s">
         <v>7</v>
+      </c>
+      <c r="E18">
+        <v>100.00353736004297</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="45.5" customHeight="1">
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
